--- a/RM.xlsx
+++ b/RM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPCI QC\Desktop\FG &amp; RMPM LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0805DAB-A4F1-4364-9F60-9CF8B252BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B3DE1-5F21-4333-84D4-C1BA0C6289EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="20445" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="2428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="2431">
   <si>
     <t>ID</t>
   </si>
@@ -7688,6 +7688,11 @@
     <t>FTC Short 19mm Dark Pearl Pink (3mm) ACE</t>
   </si>
   <si>
+    <t>To be procured....
+Codification done prior purchase.
+Procured on: 13 Jan 2026</t>
+  </si>
+  <si>
     <t>RM262.2</t>
   </si>
   <si>
@@ -7760,6 +7765,12 @@
   <si>
     <t>To be procured....
 Codification done as per PO on 12-01-2026</t>
+  </si>
+  <si>
+    <t>RM111.13</t>
+  </si>
+  <si>
+    <t>FTC Short 19mm Pearl Orange (3mm) ACE</t>
   </si>
 </sst>
 </file>
@@ -8290,20 +8301,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF57ADC2-D1CF-414F-93DE-3CACD66DBE69}" name="Table1" displayName="Table1" ref="A1:K527" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:K527" xr:uid="{AF57ADC2-D1CF-414F-93DE-3CACD66DBE69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D3E592F-543A-4579-B59D-7A7416CB7611}" name="Table1" displayName="Table1" ref="A1:K528" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:K528" xr:uid="{5D3E592F-543A-4579-B59D-7A7416CB7611}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F6227949-143E-4846-BF2A-73F1AAFDCC9D}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7287070E-D48B-4344-9E75-5B71A512B610}" name="Status" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C1D38E3E-3B24-42F4-998B-5D900D2130A9}" name="Material List::Material_Detail" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E00FB04F-17CA-4535-A545-78BB3B9CE3E5}" name="Product_Code" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C797B15D-0539-450F-9056-E010DF44EE18}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E3679B9C-09D3-4159-A416-935D19549A4C}" name="Item_Code" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E444BF5B-6063-4E5B-9738-5B9EA8218542}" name="Old_Item_Code" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{64CE3235-9647-4AAB-B6D4-4F9EF67049E0}" name="Item_Name" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{969B0EE3-4902-4842-9D1F-F2A2F2D05883}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A83C4194-A54E-4B97-AD60-9848C2D21B13}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8FC0A153-F1C0-47C7-8729-E387F2F56EC9}" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{73E40010-F765-4935-84EB-0C09586607F1}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{1CD9D4EE-D1F2-4C82-AB36-BD034CCBDAE7}" name="Status" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3E21E675-8BBB-4A20-83BC-AC68734B5684}" name="Material List::Material_Detail" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A4A6C59C-B8A7-4824-9189-567C9DBF0062}" name="Product_Code" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D97AA89A-2EA2-4E42-ABFE-BF12359E6CDC}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9BD3DECE-2D2A-4793-8A6D-2D8B9047C572}" name="Item_Code" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AC533896-6C97-4D81-BBB1-17ABA80B1717}" name="Old_Item_Code" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F0BE8B8E-95E7-4A65-B23A-77CE6C67D592}" name="Item_Name" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6FFF4206-E8E8-4394-9B3C-B3808986B79B}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{44D589D8-1B67-439A-9161-5D629B71EBCA}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{67D028A2-61EA-4739-8A1A-5B915E618505}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8606,7 +8617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K527"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25764,7 +25775,7 @@
         <v>1669</v>
       </c>
       <c r="K523" s="8" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
@@ -25784,11 +25795,11 @@
         <v>2396</v>
       </c>
       <c r="F524" s="5" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="G524" s="7"/>
       <c r="H524" s="5" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="I524" s="5" t="s">
         <v>2399</v>
@@ -25797,7 +25808,7 @@
         <v>1524</v>
       </c>
       <c r="K524" s="8" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
@@ -25817,20 +25828,20 @@
         <v>1554</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="G525" s="7"/>
       <c r="H525" s="5" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="I525" s="5" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="J525" s="5" t="s">
         <v>1524</v>
       </c>
       <c r="K525" s="8" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
@@ -25844,59 +25855,88 @@
         <v>1472</v>
       </c>
       <c r="D526" s="5" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="G526" s="7"/>
       <c r="H526" s="5" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="I526" s="5" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="J526" s="5" t="s">
         <v>1786</v>
       </c>
       <c r="K526" s="8" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A527" s="9">
+      <c r="A527" s="4">
         <v>527</v>
       </c>
-      <c r="B527" s="10"/>
-      <c r="C527" s="11" t="s">
+      <c r="B527" s="7"/>
+      <c r="C527" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D527" s="11" t="s">
-        <v>2423</v>
-      </c>
-      <c r="E527" s="11" t="s">
+      <c r="D527" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="F527" s="11" t="s">
+      <c r="E527" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G527" s="10"/>
-      <c r="H527" s="11" t="s">
+      <c r="F527" s="5" t="s">
         <v>2426</v>
       </c>
-      <c r="I527" s="10"/>
-      <c r="J527" s="11" t="s">
+      <c r="G527" s="7"/>
+      <c r="H527" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="I527" s="7"/>
+      <c r="J527" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="K527" s="12" t="s">
-        <v>2427</v>
+      <c r="K527" s="8" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A528" s="9">
+        <v>528</v>
+      </c>
+      <c r="B528" s="10"/>
+      <c r="C528" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D528" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F528" s="11" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G528" s="10"/>
+      <c r="H528" s="11" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I528" s="10"/>
+      <c r="J528" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K528" s="12" t="s">
+        <v>2407</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R8hgequLf0h95wZqlMQ7BumD6gEq3meGt/MGZNDM7ZbyymsSdAWumrzJ4EKxGqk6yfILprOY1qW/a7EhTKekhA==" saltValue="CEiOm4QWAjKkrX9trBbMFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eXIqV3mXywTG0FMA9MClyTQQ6F0RivOEdrsqFYTIvL24jn6G4mnj/GXpnh40p7ExcQ0/v74HVXvEcH7wSyr4Nw==" saltValue="7YAi0y+iGg6A3V8aSbmd/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/RM.xlsx
+++ b/RM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPCI QC\Desktop\FG &amp; RMPM LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B3DE1-5F21-4333-84D4-C1BA0C6289EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CECAC-3B83-4BBE-8C9A-C6B3638F9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="20445" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="2431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="2436">
   <si>
     <t>ID</t>
   </si>
@@ -7525,7 +7525,7 @@
     <t>RM259</t>
   </si>
   <si>
-    <t>Pet Clobic Blue</t>
+    <t>Pet Clobic Opaque Blue</t>
   </si>
   <si>
     <t>RM259.1</t>
@@ -7544,7 +7544,7 @@
     <t>RM260</t>
   </si>
   <si>
-    <t>Pet Rely Green</t>
+    <t>Pet Rely Opaque Green</t>
   </si>
   <si>
     <t>RM260.1</t>
@@ -7771,6 +7771,21 @@
   </si>
   <si>
     <t>FTC Short 19mm Pearl Orange (3mm) ACE</t>
+  </si>
+  <si>
+    <t>RM265</t>
+  </si>
+  <si>
+    <t>Pet OPG Opaque Orange</t>
+  </si>
+  <si>
+    <t>RM265.1</t>
+  </si>
+  <si>
+    <t>Mundhra OPG Orange DMB/U3/251127/5495/D1</t>
+  </si>
+  <si>
+    <t>Yellow DMB/U3/251127/5495/D1</t>
   </si>
 </sst>
 </file>
@@ -8210,8 +8225,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8301,20 +8314,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D3E592F-543A-4579-B59D-7A7416CB7611}" name="Table1" displayName="Table1" ref="A1:K528" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:K528" xr:uid="{5D3E592F-543A-4579-B59D-7A7416CB7611}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C956A-1667-45B0-A4BC-F12D1539D41E}" name="Table1" displayName="Table1" ref="A1:K529" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:K529" xr:uid="{F14C956A-1667-45B0-A4BC-F12D1539D41E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{73E40010-F765-4935-84EB-0C09586607F1}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1CD9D4EE-D1F2-4C82-AB36-BD034CCBDAE7}" name="Status" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3E21E675-8BBB-4A20-83BC-AC68734B5684}" name="Material List::Material_Detail" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A4A6C59C-B8A7-4824-9189-567C9DBF0062}" name="Product_Code" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D97AA89A-2EA2-4E42-ABFE-BF12359E6CDC}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9BD3DECE-2D2A-4793-8A6D-2D8B9047C572}" name="Item_Code" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AC533896-6C97-4D81-BBB1-17ABA80B1717}" name="Old_Item_Code" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{F0BE8B8E-95E7-4A65-B23A-77CE6C67D592}" name="Item_Name" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{6FFF4206-E8E8-4394-9B3C-B3808986B79B}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{44D589D8-1B67-439A-9161-5D629B71EBCA}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{67D028A2-61EA-4739-8A1A-5B915E618505}" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{682FDE6B-39DE-4961-B1E8-AAB34BEECA8C}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E78E9F7A-9F32-41D1-8EC4-5EE83D530E4C}" name="Status" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D2AFBBFB-3F81-4B61-9CA7-F6462A621944}" name="Material List::Material_Detail" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F064C5C7-BC7E-4199-88F0-3124D8CA986F}" name="Product_Code" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2C715FAA-9FA3-4C44-96CD-DEA497060FC2}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{8C7BD724-355D-4D70-8E09-7323E3ED5CF8}" name="Item_Code" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{69DD0CD4-6F96-407D-BD16-77B6881D94F2}" name="Old_Item_Code" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B70E13EC-7EAB-4620-B5D3-EB1843AC669A}" name="Item_Name" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{520CEA5A-3165-49D9-AA77-63682E7E107B}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{2A7E509E-C70E-4280-854A-39CFEA55B96A}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8343EC19-EBAF-4503-A8F9-82175EB81A56}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8617,7 +8630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K528"/>
+  <dimension ref="A1:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25907,36 +25920,67 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A528" s="9">
+      <c r="A528" s="4">
         <v>528</v>
       </c>
-      <c r="B528" s="10"/>
-      <c r="C528" s="11" t="s">
+      <c r="B528" s="7"/>
+      <c r="C528" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="D528" s="11" t="s">
+      <c r="D528" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="E528" s="11" t="s">
+      <c r="E528" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="F528" s="11" t="s">
+      <c r="F528" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="G528" s="10"/>
-      <c r="H528" s="11" t="s">
+      <c r="G528" s="7"/>
+      <c r="H528" s="5" t="s">
         <v>2430</v>
       </c>
-      <c r="I528" s="10"/>
-      <c r="J528" s="11" t="s">
+      <c r="I528" s="7"/>
+      <c r="J528" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="K528" s="12" t="s">
+      <c r="K528" s="8" t="s">
         <v>2407</v>
       </c>
     </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529" s="9">
+        <v>529</v>
+      </c>
+      <c r="B529" s="10"/>
+      <c r="C529" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D529" s="11" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F529" s="11" t="s">
+        <v>2433</v>
+      </c>
+      <c r="G529" s="10"/>
+      <c r="H529" s="11" t="s">
+        <v>2434</v>
+      </c>
+      <c r="I529" s="11" t="s">
+        <v>2435</v>
+      </c>
+      <c r="J529" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="K529" s="12" t="s">
+        <v>2407</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eXIqV3mXywTG0FMA9MClyTQQ6F0RivOEdrsqFYTIvL24jn6G4mnj/GXpnh40p7ExcQ0/v74HVXvEcH7wSyr4Nw==" saltValue="7YAi0y+iGg6A3V8aSbmd/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TVFTHKRRay9o/t3tE+Vx178DSV3HdKQFzzY3rmdujl/r3ulv6LUTW+k51Ov4qK/xWur0v6avbZULPPkN/INI8w==" saltValue="Zp3k0kUuSzfi66CArYIsUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/RM.xlsx
+++ b/RM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPCI QC\Desktop\FG &amp; RMPM LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CECAC-3B83-4BBE-8C9A-C6B3638F9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA978BE-91FB-4371-8E0C-2A27C1DFF3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="20445" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="2436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="2443">
   <si>
     <t>ID</t>
   </si>
@@ -7475,12 +7475,12 @@
     <t>FTC 38mm Tablet Blue</t>
   </si>
   <si>
-    <t>38mm Tablet Fliptop Cap Dark Blue</t>
+    <t>38mm Tablet Fliptop Cap Dark Blue 3000 X 5 Box Be911</t>
   </si>
   <si>
     <t xml:space="preserve">Height: 18.60 mm
 OD: 40.15 mm
-Weight: 5.25 mm
+Weight: 5.25 gm
 </t>
   </si>
   <si>
@@ -7659,7 +7659,6 @@
   </si>
   <si>
     <t>Codification based on purchase order request.
-will be procured........
 Received on: 5-01-2026
 Height= 89.50 mm
 W= 10.30 gm
@@ -7688,8 +7687,7 @@
     <t>FTC Short 19mm Dark Pearl Pink (3mm) ACE</t>
   </si>
   <si>
-    <t>To be procured....
-Codification done prior purchase.
+    <t>Codification done prior purchase.
 Procured on: 13 Jan 2026</t>
   </si>
   <si>
@@ -7763,8 +7761,7 @@
     <t>Preform 28mm 52gm PCO Short Neck Clear -Collar</t>
   </si>
   <si>
-    <t>To be procured....
-Codification done as per PO on 12-01-2026</t>
+    <t>Codification done as per PO on 12-01-2026</t>
   </si>
   <si>
     <t>RM111.13</t>
@@ -7773,6 +7770,12 @@
     <t>FTC Short 19mm Pearl Orange (3mm) ACE</t>
   </si>
   <si>
+    <t>19mm Short Fliptop Cap Pearl Orange 7500 x 4 Box</t>
+  </si>
+  <si>
+    <t>Codification done prior purchase.</t>
+  </si>
+  <si>
     <t>RM265</t>
   </si>
   <si>
@@ -7786,6 +7789,21 @@
   </si>
   <si>
     <t>Yellow DMB/U3/251127/5495/D1</t>
+  </si>
+  <si>
+    <t>RM266</t>
+  </si>
+  <si>
+    <t>Midnight Blue</t>
+  </si>
+  <si>
+    <t>RM266.1</t>
+  </si>
+  <si>
+    <t>Rah Midnight Blue MB (DN-09082022)</t>
+  </si>
+  <si>
+    <t>Rah Mid-Night Blue MB (DN-09082022)</t>
   </si>
 </sst>
 </file>
@@ -7965,13 +7983,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8225,6 +8241,8 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8314,20 +8332,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C956A-1667-45B0-A4BC-F12D1539D41E}" name="Table1" displayName="Table1" ref="A1:K529" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:K529" xr:uid="{F14C956A-1667-45B0-A4BC-F12D1539D41E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F1E8D76-5862-4302-A167-1CD59370D110}" name="Table1" displayName="Table1" ref="A1:K530" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:K530" xr:uid="{9F1E8D76-5862-4302-A167-1CD59370D110}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{682FDE6B-39DE-4961-B1E8-AAB34BEECA8C}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E78E9F7A-9F32-41D1-8EC4-5EE83D530E4C}" name="Status" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D2AFBBFB-3F81-4B61-9CA7-F6462A621944}" name="Material List::Material_Detail" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F064C5C7-BC7E-4199-88F0-3124D8CA986F}" name="Product_Code" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2C715FAA-9FA3-4C44-96CD-DEA497060FC2}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8C7BD724-355D-4D70-8E09-7323E3ED5CF8}" name="Item_Code" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{69DD0CD4-6F96-407D-BD16-77B6881D94F2}" name="Old_Item_Code" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B70E13EC-7EAB-4620-B5D3-EB1843AC669A}" name="Item_Name" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{520CEA5A-3165-49D9-AA77-63682E7E107B}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{2A7E509E-C70E-4280-854A-39CFEA55B96A}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8343EC19-EBAF-4503-A8F9-82175EB81A56}" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1EEF98EB-F390-47C1-BD7E-4AD8C8B490D4}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{09F334CE-05C1-47F0-B710-89113DA8CE89}" name="Status" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{07D6BCFC-9A24-435E-A82F-CA4DFFDAE8C1}" name="Material List::Material_Detail" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{CEFAACBD-9153-40F9-A365-E9B70C6724BA}" name="Product_Code" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D641327B-EAFC-4155-9C2F-6573EC4A9F16}" name="RM PM Product List 2::Product_Detail" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{77105DE7-D92B-4F3E-A189-5C1C1E9B8384}" name="Item_Code" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C51144A7-F25A-4500-B72E-65D8DA098A7D}" name="Old_Item_Code" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{643CA6CC-E1ED-4DF5-9C0A-F91AB85F086B}" name="Item_Name" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9AE69C0D-0329-4D09-995C-505C4894F7AB}" name="Item_Detail_by_Vendor" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EBC82A8A-951D-4B35-870C-8EC56ED2CA43}" name="Vendor List 2::Vendor_Name" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{25FF612D-672B-4F86-853D-8FA5048F2736}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8630,11 +8648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K529"/>
+  <dimension ref="A1:K530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25894,7 +25912,9 @@
       <c r="A527" s="4">
         <v>527</v>
       </c>
-      <c r="B527" s="7"/>
+      <c r="B527" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C527" s="5" t="s">
         <v>588</v>
       </c>
@@ -25923,7 +25943,9 @@
       <c r="A528" s="4">
         <v>528</v>
       </c>
-      <c r="B528" s="7"/>
+      <c r="B528" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C528" s="5" t="s">
         <v>1472</v>
       </c>
@@ -25940,47 +25962,79 @@
       <c r="H528" s="5" t="s">
         <v>2430</v>
       </c>
-      <c r="I528" s="7"/>
+      <c r="I528" s="5" t="s">
+        <v>2431</v>
+      </c>
       <c r="J528" s="5" t="s">
         <v>1669</v>
       </c>
       <c r="K528" s="8" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>529</v>
+      </c>
+      <c r="B529" s="7"/>
+      <c r="C529" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G529" s="7"/>
+      <c r="H529" s="5" t="s">
+        <v>2436</v>
+      </c>
+      <c r="I529" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="J529" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K529" s="8" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A529" s="9">
-        <v>529</v>
-      </c>
-      <c r="B529" s="10"/>
-      <c r="C529" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D529" s="11" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E529" s="11" t="s">
-        <v>2432</v>
-      </c>
-      <c r="F529" s="11" t="s">
-        <v>2433</v>
-      </c>
-      <c r="G529" s="10"/>
-      <c r="H529" s="11" t="s">
-        <v>2434</v>
-      </c>
-      <c r="I529" s="11" t="s">
-        <v>2435</v>
-      </c>
-      <c r="J529" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="K529" s="12" t="s">
-        <v>2407</v>
-      </c>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A530" s="9">
+        <v>530</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D530" s="10" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E530" s="10" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F530" s="10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G530" s="11"/>
+      <c r="H530" s="10" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I530" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J530" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="K530" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TVFTHKRRay9o/t3tE+Vx178DSV3HdKQFzzY3rmdujl/r3ulv6LUTW+k51Ov4qK/xWur0v6avbZULPPkN/INI8w==" saltValue="Zp3k0kUuSzfi66CArYIsUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
